--- a/Assignment - Applied Statistics 1 - Central tendency.xlsx
+++ b/Assignment - Applied Statistics 1 - Central tendency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7B1E3-7852-42CC-B0B2-E446DA4424AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45F9B5-1C21-4A08-B72B-EA4F01E50D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1073">
   <si>
     <t>Passport Number</t>
   </si>
@@ -3231,12 +3231,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Average Score</t>
-  </si>
-  <si>
-    <t>Median Score</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
@@ -3253,6 +3247,12 @@
   </si>
   <si>
     <t>Looking at the success rate of 83%, I can confirm that this assumption is true</t>
+  </si>
+  <si>
+    <t>Median ques attempted</t>
+  </si>
+  <si>
+    <t>Average ques attempted</t>
   </si>
 </sst>
 </file>
@@ -3427,7 +3427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3458,15 +3458,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -3475,20 +3471,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3873,7 +3869,7 @@
       <c r="I6" s="5">
         <v>49</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -3899,22 +3895,22 @@
       <c r="I7" s="5">
         <v>58</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="21" t="s">
         <v>1056</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="21" t="s">
         <v>1053</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="21" t="s">
         <v>1056</v>
       </c>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -3940,22 +3936,22 @@
       <c r="I8" s="5">
         <v>29</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="25">
+      <c r="K8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="23">
         <f>AVERAGEIF(Country,K8,Death_in_age)</f>
         <v>48.124260355029584</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="23">
         <f>COUNTIF(Di_Country,K8)</f>
         <v>142</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <f>AVERAGEIF(Di_Country,K8,Number_of_diseases)</f>
         <v>2.5</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="23">
         <f>COUNTIF(Country,K8)</f>
         <v>169</v>
       </c>
@@ -3984,22 +3980,22 @@
       <c r="I9" s="5">
         <v>60</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="25">
+      <c r="K9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="23">
         <f>AVERAGEIF(Country,K9,Death_in_age)</f>
         <v>44.943661971830984</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="23">
         <f>COUNTIF(Di_Country,K9)</f>
         <v>161</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="24">
         <f>AVERAGEIF(Di_Country,K9,Number_of_diseases)</f>
         <v>2.9503105590062111</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="23">
         <f>COUNTIF(Country,K9)</f>
         <v>142</v>
       </c>
@@ -4028,22 +4024,22 @@
       <c r="I10" s="5">
         <v>44</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="25">
+      <c r="K10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="23">
         <f>AVERAGEIF(Country,K10,Death_in_age)</f>
         <v>47.275862068965516</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="23">
         <f>COUNTIF(Di_Country,K10)</f>
         <v>153</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="24">
         <f>AVERAGEIF(Di_Country,K10,Number_of_diseases)</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="23">
         <f>COUNTIF(Country,K10)</f>
         <v>145</v>
       </c>
@@ -4122,12 +4118,12 @@
       <c r="I13" s="5">
         <v>40</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="34" t="s">
         <v>1054</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -4153,12 +4149,12 @@
       <c r="I14" s="5">
         <v>27</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>1055</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
     </row>
@@ -15303,10 +15299,10 @@
       <c r="D4" s="12">
         <v>9800000</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>1057</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="28">
         <f>AVERAGE(D4:D28)</f>
         <v>3233600</v>
       </c>
@@ -15324,10 +15320,10 @@
       <c r="D5" s="12">
         <v>9400000</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="27" t="s">
         <v>1058</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="28">
         <f>MEDIAN(D4:D28)</f>
         <v>2400000</v>
       </c>
@@ -15359,7 +15355,7 @@
       <c r="D7" s="12">
         <v>3500000</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -15374,19 +15370,19 @@
       <c r="D8" s="12">
         <v>2800000</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="35" t="s">
         <v>1059</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
@@ -15401,7 +15397,7 @@
       <c r="D9" s="12">
         <v>2800000</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -15416,16 +15412,16 @@
       <c r="D10" s="12">
         <v>2200000</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
@@ -15440,14 +15436,14 @@
       <c r="D11" s="12">
         <v>2400000</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -15462,7 +15458,7 @@
       <c r="D12" s="12">
         <v>2100000</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -15477,7 +15473,7 @@
       <c r="D13" s="12">
         <v>4500000</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
@@ -15492,7 +15488,7 @@
       <c r="D14" s="12">
         <v>4000000</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -15507,7 +15503,7 @@
       <c r="D15" s="12">
         <v>2900000</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -15522,7 +15518,7 @@
       <c r="D16" s="12">
         <v>2800000</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
@@ -15537,7 +15533,7 @@
       <c r="D17" s="12">
         <v>2140000</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
@@ -15552,7 +15548,7 @@
       <c r="D18" s="12">
         <v>2200000</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
@@ -15567,7 +15563,7 @@
       <c r="D19" s="12">
         <v>2100000</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
@@ -15582,7 +15578,7 @@
       <c r="D20" s="12">
         <v>1400000</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
@@ -15597,7 +15593,7 @@
       <c r="D21" s="12">
         <v>1600000</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -15612,7 +15608,7 @@
       <c r="D22" s="12">
         <v>1300000</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
@@ -15627,7 +15623,7 @@
       <c r="D23" s="12">
         <v>1500000</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
@@ -15642,7 +15638,7 @@
       <c r="D24" s="12">
         <v>1200000</v>
       </c>
-      <c r="E24" s="27"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
@@ -15657,7 +15653,7 @@
       <c r="D25" s="12">
         <v>1400000</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
@@ -15672,7 +15668,7 @@
       <c r="D26" s="12">
         <v>3200000</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -15687,7 +15683,7 @@
       <c r="D27" s="12">
         <v>3000000</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
@@ -15702,7 +15698,7 @@
       <c r="D28" s="12">
         <v>1500000</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15778,13 +15774,13 @@
       <c r="R2" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="29" t="s">
         <v>1061</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="30" t="s">
         <v>963</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="30" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -15844,10 +15840,10 @@
         <f>MODE(R3:R110)</f>
         <v>4</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="22" t="s">
         <v>966</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="23">
         <f>MODE(C3:C110)</f>
         <v>3</v>
       </c>
@@ -15894,10 +15890,10 @@
       <c r="R4" s="15">
         <v>2</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="22" t="s">
         <v>967</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="23">
         <f>MODE(H3:H110)</f>
         <v>2</v>
       </c>
@@ -15945,10 +15941,10 @@
       <c r="R5" s="15">
         <v>3</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="23">
         <f>MODE(M3:M110)</f>
         <v>1</v>
       </c>
@@ -15996,10 +15992,10 @@
       <c r="R6" s="15">
         <v>4</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="22" t="s">
         <v>969</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="23">
         <f>MODE(R3:R110)</f>
         <v>4</v>
       </c>
@@ -20594,7 +20590,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20621,17 +20617,20 @@
       <c r="F1" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="G1" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>1064</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>1063</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20653,7 +20652,7 @@
       <c r="F2" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G2" s="22" t="str">
+      <c r="G2" s="3" t="str">
         <f>IF(E2&gt;$K$6, "Cleared", "Not Cleared")</f>
         <v>Cleared</v>
       </c>
@@ -20661,12 +20660,16 @@
         <f>IF(F2=G2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>977</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="23">
         <f>COUNTIF(F1:F72,J2)</f>
         <v>35</v>
+      </c>
+      <c r="L2" s="23">
+        <f>AVERAGEIF($F$2:$F$72,J2,$E$2:$E$72)</f>
+        <v>49.25714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20688,7 +20691,7 @@
       <c r="F3" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G3" s="22" t="str">
+      <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G66" si="0">IF(E3&gt;$K$6, "Cleared", "Not Cleared")</f>
         <v>Cleared</v>
       </c>
@@ -20696,12 +20699,16 @@
         <f t="shared" ref="H3:H66" si="1">IF(F3=G3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>979</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="23">
         <f>COUNTIF(F2:F72,J3)</f>
         <v>36</v>
+      </c>
+      <c r="L3" s="23">
+        <f>AVERAGEIF($F$2:$F$72,J3,$E$2:$E$72)</f>
+        <v>42.333333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20723,7 +20730,7 @@
       <c r="F4" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G4" s="22" t="str">
+      <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20751,7 +20758,7 @@
       <c r="F5" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20759,10 +20766,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K5" s="25">
+      <c r="J5" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K5" s="23">
         <f>AVERAGE(E2:E72)</f>
         <v>45.74647887323944</v>
       </c>
@@ -20786,7 +20793,7 @@
       <c r="F6" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G6" s="22" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20794,10 +20801,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="J6" s="22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K6" s="23">
         <f>MEDIAN(E2:E72)</f>
         <v>45</v>
       </c>
@@ -20821,7 +20828,7 @@
       <c r="F7" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G7" s="22" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20849,7 +20856,7 @@
       <c r="F8" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20857,10 +20864,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="J8" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K8" s="23">
         <f>SUM(H2:H72)</f>
         <v>59</v>
       </c>
@@ -20884,7 +20891,7 @@
       <c r="F9" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20892,10 +20899,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K9" s="25">
+      <c r="J9" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K9" s="23">
         <v>71</v>
       </c>
     </row>
@@ -20918,7 +20925,7 @@
       <c r="F10" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20926,10 +20933,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>1071</v>
-      </c>
-      <c r="K10" s="40">
+      <c r="J10" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K10" s="33">
         <f>K8/K9</f>
         <v>0.83098591549295775</v>
       </c>
@@ -20953,7 +20960,7 @@
       <c r="F11" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G11" s="22" t="str">
+      <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20981,7 +20988,7 @@
       <c r="F12" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G12" s="22" t="str">
+      <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -20989,11 +20996,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>1072</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -21014,7 +21021,7 @@
       <c r="F13" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G13" s="22" t="str">
+      <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21042,7 +21049,7 @@
       <c r="F14" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21070,7 +21077,7 @@
       <c r="F15" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21098,7 +21105,7 @@
       <c r="F16" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G16" s="22" t="str">
+      <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21126,7 +21133,7 @@
       <c r="F17" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21154,7 +21161,7 @@
       <c r="F18" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21182,7 +21189,7 @@
       <c r="F19" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21210,7 +21217,7 @@
       <c r="F20" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21238,7 +21245,7 @@
       <c r="F21" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21266,7 +21273,7 @@
       <c r="F22" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21294,7 +21301,7 @@
       <c r="F23" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21322,7 +21329,7 @@
       <c r="F24" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21350,7 +21357,7 @@
       <c r="F25" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21378,7 +21385,7 @@
       <c r="F26" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21406,7 +21413,7 @@
       <c r="F27" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21434,7 +21441,7 @@
       <c r="F28" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21462,7 +21469,7 @@
       <c r="F29" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21490,7 +21497,7 @@
       <c r="F30" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G30" s="22" t="str">
+      <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21518,7 +21525,7 @@
       <c r="F31" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G31" s="22" t="str">
+      <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21546,7 +21553,7 @@
       <c r="F32" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G32" s="22" t="str">
+      <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Cleared</v>
       </c>
@@ -21574,7 +21581,7 @@
       <c r="F33" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G33" s="22" t="str">
+      <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21602,7 +21609,7 @@
       <c r="F34" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G34" s="22" t="str">
+      <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21630,7 +21637,7 @@
       <c r="F35" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G35" s="22" t="str">
+      <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21658,7 +21665,7 @@
       <c r="F36" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G36" s="22" t="str">
+      <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21686,7 +21693,7 @@
       <c r="F37" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G37" s="22" t="str">
+      <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21714,7 +21721,7 @@
       <c r="F38" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G38" s="22" t="str">
+      <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21742,7 +21749,7 @@
       <c r="F39" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G39" s="22" t="str">
+      <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21770,7 +21777,7 @@
       <c r="F40" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G40" s="22" t="str">
+      <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21798,7 +21805,7 @@
       <c r="F41" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G41" s="22" t="str">
+      <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21826,7 +21833,7 @@
       <c r="F42" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G42" s="22" t="str">
+      <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21854,7 +21861,7 @@
       <c r="F43" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G43" s="22" t="str">
+      <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21882,7 +21889,7 @@
       <c r="F44" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G44" s="22" t="str">
+      <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21910,7 +21917,7 @@
       <c r="F45" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G45" s="22" t="str">
+      <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21938,7 +21945,7 @@
       <c r="F46" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G46" s="22" t="str">
+      <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21966,7 +21973,7 @@
       <c r="F47" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G47" s="22" t="str">
+      <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -21994,7 +22001,7 @@
       <c r="F48" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G48" s="22" t="str">
+      <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22022,7 +22029,7 @@
       <c r="F49" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G49" s="22" t="str">
+      <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22050,7 +22057,7 @@
       <c r="F50" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G50" s="22" t="str">
+      <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22078,7 +22085,7 @@
       <c r="F51" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G51" s="22" t="str">
+      <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22106,7 +22113,7 @@
       <c r="F52" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G52" s="22" t="str">
+      <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22134,7 +22141,7 @@
       <c r="F53" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G53" s="22" t="str">
+      <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22162,7 +22169,7 @@
       <c r="F54" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G54" s="22" t="str">
+      <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22190,7 +22197,7 @@
       <c r="F55" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G55" s="22" t="str">
+      <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22218,7 +22225,7 @@
       <c r="F56" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G56" s="22" t="str">
+      <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22246,7 +22253,7 @@
       <c r="F57" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G57" s="22" t="str">
+      <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22274,7 +22281,7 @@
       <c r="F58" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G58" s="22" t="str">
+      <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22302,7 +22309,7 @@
       <c r="F59" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G59" s="22" t="str">
+      <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22330,7 +22337,7 @@
       <c r="F60" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G60" s="22" t="str">
+      <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22358,7 +22365,7 @@
       <c r="F61" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G61" s="22" t="str">
+      <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22386,7 +22393,7 @@
       <c r="F62" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G62" s="22" t="str">
+      <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22414,7 +22421,7 @@
       <c r="F63" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G63" s="22" t="str">
+      <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22442,7 +22449,7 @@
       <c r="F64" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G64" s="22" t="str">
+      <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22470,7 +22477,7 @@
       <c r="F65" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G65" s="22" t="str">
+      <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22498,7 +22505,7 @@
       <c r="F66" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G66" s="22" t="str">
+      <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Not Cleared</v>
       </c>
@@ -22526,7 +22533,7 @@
       <c r="F67" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G67" s="22" t="str">
+      <c r="G67" s="3" t="str">
         <f t="shared" ref="G67:G72" si="2">IF(E67&gt;$K$6, "Cleared", "Not Cleared")</f>
         <v>Not Cleared</v>
       </c>
@@ -22554,7 +22561,7 @@
       <c r="F68" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G68" s="22" t="str">
+      <c r="G68" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Not Cleared</v>
       </c>
@@ -22582,7 +22589,7 @@
       <c r="F69" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G69" s="22" t="str">
+      <c r="G69" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Not Cleared</v>
       </c>
@@ -22610,7 +22617,7 @@
       <c r="F70" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G70" s="22" t="str">
+      <c r="G70" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Not Cleared</v>
       </c>
@@ -22638,7 +22645,7 @@
       <c r="F71" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="G71" s="22" t="str">
+      <c r="G71" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Not Cleared</v>
       </c>
@@ -22666,7 +22673,7 @@
       <c r="F72" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="G72" s="22" t="str">
+      <c r="G72" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Not Cleared</v>
       </c>
